--- a/uploads/SOB111.xlsx
+++ b/uploads/SOB111.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://manomayconsultancyservices-my.sharepoint.com/personal/guruprasad_mekala_manomay_biz/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F60ED34D-CC52-4AC3-BCAC-8AFCC24E2F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{F60ED34D-CC52-4AC3-BCAC-8AFCC24E2F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37EC2785-AF7A-45D3-BCD7-D93B1BC98CE3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{83C2C39D-BEF3-4B44-94F0-95EF5AD45636}"/>
   </bookViews>
@@ -360,25 +360,6 @@
         <rFont val="Arial MT"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">80% on the 1st $50,000.00, 100%
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>thereafter</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
       <t>Pre-certified Overseas Treatment outside of Managed Care Network</t>
     </r>
   </si>
@@ -1418,6 +1399,9 @@
       </rPr>
       <t>This benefit provides for the reimbursement of expenses incurred by necessary vision care treatment and supplies which are recommended by a duly qualified optician, optometrist or ophthalmologist up to the amounts shown in the schedule of benefits.</t>
     </r>
+  </si>
+  <si>
+    <t>80% on the 1st $50,000.00, 100% thereafter</t>
   </si>
 </sst>
 </file>
@@ -1522,7 +1506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
@@ -1557,95 +1541,98 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1984,8 +1971,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="52.36328125" defaultRowHeight="14.5"/>
@@ -2155,53 +2142,53 @@
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" ht="23">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13" t="s">
-        <v>22</v>
+      <c r="B20" s="38"/>
+      <c r="C20" s="42" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="23">
       <c r="A21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="13" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="26">
       <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="14"/>
+        <v>28</v>
+      </c>
+      <c r="B24" s="13"/>
       <c r="C24" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="6">
@@ -2210,23 +2197,23 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="14" t="s">
         <v>31</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="15" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="9">
@@ -2235,7 +2222,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="6">
@@ -2244,23 +2231,23 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="12"/>
+      <c r="C30" s="38"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="9">
@@ -2269,7 +2256,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="9">
@@ -2278,7 +2265,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="9">
@@ -2287,14 +2274,14 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="16" t="s">
-        <v>43</v>
+      <c r="A36" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="11">
@@ -2303,7 +2290,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="9">
@@ -2312,7 +2299,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="10">
@@ -2320,8 +2307,8 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="16" t="s">
-        <v>46</v>
+      <c r="A39" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="11">
@@ -2329,543 +2316,543 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="17"/>
+      <c r="A40" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="39"/>
       <c r="C40" s="9">
         <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
     </row>
     <row r="42" spans="1:3" ht="26">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="18"/>
+      <c r="C42" s="16"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="18"/>
+      <c r="C43" s="16"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" s="20">
+        <v>50</v>
+      </c>
+      <c r="B44" s="18">
         <v>130</v>
       </c>
-      <c r="C44" s="18"/>
+      <c r="C44" s="16"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="20">
+        <v>51</v>
+      </c>
+      <c r="B45" s="18">
         <v>110</v>
       </c>
-      <c r="C45" s="18"/>
+      <c r="C45" s="16"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="20">
+        <v>52</v>
+      </c>
+      <c r="B46" s="18">
         <v>300</v>
       </c>
-      <c r="C46" s="18"/>
+      <c r="C46" s="16"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="20">
+        <v>53</v>
+      </c>
+      <c r="B47" s="18">
         <v>150</v>
       </c>
-      <c r="C47" s="18"/>
+      <c r="C47" s="16"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" s="20">
+        <v>54</v>
+      </c>
+      <c r="B48" s="18">
         <v>350</v>
       </c>
-      <c r="C48" s="18"/>
+      <c r="C48" s="16"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" s="18"/>
+      <c r="C49" s="16"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="18"/>
+      <c r="B50" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="16"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" s="18"/>
+        <v>58</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="16"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="18"/>
+        <v>59</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="16"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" s="18"/>
+        <v>60</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="16"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B54" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C54" s="18"/>
+        <v>61</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="16"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B55" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="18"/>
+      <c r="C55" s="16"/>
     </row>
     <row r="56" spans="1:3" ht="21.5">
       <c r="A56" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B56" s="23">
+        <v>63</v>
+      </c>
+      <c r="B56" s="21">
         <v>1</v>
       </c>
-      <c r="C56" s="18"/>
+      <c r="C56" s="16"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B57" s="24">
+        <v>64</v>
+      </c>
+      <c r="B57" s="22">
         <v>2</v>
       </c>
-      <c r="C57" s="18"/>
+      <c r="C57" s="16"/>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B58" s="2"/>
-      <c r="C58" s="18"/>
+      <c r="C58" s="16"/>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B59" s="25">
+        <v>66</v>
+      </c>
+      <c r="B59" s="23">
         <v>2500</v>
       </c>
-      <c r="C59" s="18"/>
+      <c r="C59" s="16"/>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B60" s="25">
+        <v>67</v>
+      </c>
+      <c r="B60" s="23">
         <v>3000</v>
       </c>
-      <c r="C60" s="18"/>
+      <c r="C60" s="16"/>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B61" s="25">
+        <v>68</v>
+      </c>
+      <c r="B61" s="23">
         <v>1200</v>
       </c>
-      <c r="C61" s="18"/>
+      <c r="C61" s="16"/>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="23">
+        <v>1200</v>
+      </c>
+      <c r="C62" s="16"/>
+    </row>
+    <row r="63" spans="1:3" ht="23">
+      <c r="A63" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B62" s="25">
-        <v>1200</v>
-      </c>
-      <c r="C62" s="18"/>
-    </row>
-    <row r="63" spans="1:3" ht="23">
-      <c r="A63" s="16" t="s">
-        <v>71</v>
-      </c>
       <c r="B63" s="2"/>
-      <c r="C63" s="18"/>
+      <c r="C63" s="16"/>
     </row>
     <row r="64" spans="1:3" ht="26">
       <c r="A64" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B64" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="18"/>
+      <c r="C64" s="16"/>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B65" s="2"/>
-      <c r="C65" s="18"/>
+      <c r="C65" s="16"/>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B66" s="20">
+        <v>73</v>
+      </c>
+      <c r="B66" s="18">
         <v>150</v>
       </c>
-      <c r="C66" s="18"/>
+      <c r="C66" s="16"/>
     </row>
     <row r="67" spans="1:3" ht="23">
       <c r="A67" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B67" s="20">
+        <v>74</v>
+      </c>
+      <c r="B67" s="18">
         <v>65</v>
       </c>
-      <c r="C67" s="18"/>
+      <c r="C67" s="16"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B68" s="20">
+        <v>75</v>
+      </c>
+      <c r="B68" s="18">
         <v>150</v>
       </c>
-      <c r="C68" s="18"/>
+      <c r="C68" s="16"/>
     </row>
     <row r="69" spans="1:3" ht="23">
       <c r="A69" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B69" s="20">
+        <v>76</v>
+      </c>
+      <c r="B69" s="18">
         <v>65</v>
       </c>
-      <c r="C69" s="18"/>
+      <c r="C69" s="16"/>
     </row>
     <row r="70" spans="1:3" ht="23">
       <c r="A70" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" s="18">
+        <v>100</v>
+      </c>
+      <c r="C70" s="16"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B70" s="20">
-        <v>100</v>
-      </c>
-      <c r="C70" s="18"/>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="16" t="s">
+      <c r="B71" s="2"/>
+      <c r="C71" s="16"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="18"/>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B72" s="26"/>
-      <c r="C72" s="18"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="16"/>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="16"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="18"/>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="18"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="27" t="s">
+      <c r="B75" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="16"/>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B75" s="28" t="s">
+      <c r="B76" s="27">
+        <v>2000</v>
+      </c>
+      <c r="C76" s="16"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" s="28">
+        <v>50</v>
+      </c>
+      <c r="C77" s="16"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" s="16"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="16"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" s="31">
         <v>1</v>
       </c>
-      <c r="C75" s="18"/>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B76" s="30">
-        <v>2000</v>
-      </c>
-      <c r="C76" s="18"/>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B77" s="31">
-        <v>50</v>
-      </c>
-      <c r="C77" s="18"/>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B78" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C78" s="18"/>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="18"/>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="29" t="s">
+      <c r="C80" s="16"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="B80" s="34">
-        <v>1</v>
-      </c>
-      <c r="C80" s="18"/>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="29" t="s">
+      <c r="B81" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="C81" s="16"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="B81" s="34">
+      <c r="B82" s="31">
         <v>0.8</v>
       </c>
-      <c r="C81" s="18"/>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="35" t="s">
+      <c r="C82" s="16"/>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B82" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="C82" s="18"/>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="33" t="s">
+      <c r="B83" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B83" s="36" t="s">
+      <c r="C83" s="16"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="C83" s="18"/>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="29" t="s">
+      <c r="B84" s="28">
+        <v>150</v>
+      </c>
+      <c r="C84" s="16"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="B84" s="31">
+      <c r="B85" s="28">
+        <v>110</v>
+      </c>
+      <c r="C85" s="16"/>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B86" s="28">
+        <v>90</v>
+      </c>
+      <c r="C86" s="16"/>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B87" s="28">
         <v>150</v>
       </c>
-      <c r="C84" s="18"/>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B85" s="31">
-        <v>110</v>
-      </c>
-      <c r="C85" s="18"/>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="B86" s="31">
-        <v>90</v>
-      </c>
-      <c r="C86" s="18"/>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="29" t="s">
+      <c r="C87" s="16"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="B87" s="31">
-        <v>150</v>
-      </c>
-      <c r="C87" s="18"/>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="29" t="s">
+      <c r="B88" s="28">
+        <v>170</v>
+      </c>
+      <c r="C88" s="16"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B88" s="31">
+      <c r="B89" s="28">
+        <v>280</v>
+      </c>
+      <c r="C89" s="16"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B90" s="28">
+        <v>70</v>
+      </c>
+      <c r="C90" s="16"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B91" s="28">
+        <v>140</v>
+      </c>
+      <c r="C91" s="16"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B92" s="28">
+        <v>200</v>
+      </c>
+      <c r="C92" s="16"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B93" s="28">
+        <v>140</v>
+      </c>
+      <c r="C93" s="16"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B94" s="28">
         <v>170</v>
       </c>
-      <c r="C88" s="18"/>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="B89" s="31">
+      <c r="C94" s="16"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B95" s="28">
         <v>280</v>
       </c>
-      <c r="C89" s="18"/>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B90" s="31">
-        <v>70</v>
-      </c>
-      <c r="C90" s="18"/>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B91" s="31">
-        <v>140</v>
-      </c>
-      <c r="C91" s="18"/>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="B92" s="31">
-        <v>200</v>
-      </c>
-      <c r="C92" s="18"/>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="B93" s="31">
-        <v>140</v>
-      </c>
-      <c r="C93" s="18"/>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="B94" s="31">
-        <v>170</v>
-      </c>
-      <c r="C94" s="18"/>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="B95" s="31">
-        <v>280</v>
-      </c>
-      <c r="C95" s="18"/>
+      <c r="C95" s="16"/>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="18"/>
-      <c r="B96" s="18"/>
-      <c r="C96" s="18"/>
+      <c r="A96" s="16"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B97" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B97" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C97" s="18"/>
+      <c r="C97" s="16"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B98" s="38">
+        <v>105</v>
+      </c>
+      <c r="B98" s="35">
         <v>500</v>
       </c>
-      <c r="C98" s="18"/>
+      <c r="C98" s="16"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B99" s="38">
+        <v>106</v>
+      </c>
+      <c r="B99" s="35">
         <v>50</v>
       </c>
-      <c r="C99" s="18"/>
+      <c r="C99" s="16"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B100" s="39">
+        <v>107</v>
+      </c>
+      <c r="B100" s="36">
         <v>0.8</v>
       </c>
-      <c r="C100" s="18"/>
+      <c r="C100" s="16"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B101" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="C101" s="18"/>
+        <v>84</v>
+      </c>
+      <c r="B101" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C101" s="16"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B102" s="41"/>
-      <c r="C102" s="18"/>
+      <c r="C102" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
